--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>0.09906974674199999</v>
+        <v>0.519562792216</v>
       </c>
       <c r="R2">
-        <v>0.891627720678</v>
+        <v>4.676065129944</v>
       </c>
       <c r="S2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="T2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
         <v>8.101819811906667</v>
@@ -641,10 +641,10 @@
         <v>72.91637830716</v>
       </c>
       <c r="S3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="T3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>7.522330161304</v>
+        <v>9.585905708939334</v>
       </c>
       <c r="R4">
-        <v>67.700971451736</v>
+        <v>86.27315138045401</v>
       </c>
       <c r="S4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="T4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>1.302919764149333</v>
+        <v>0.9147861799913334</v>
       </c>
       <c r="R5">
-        <v>11.726277877344</v>
+        <v>8.233075619921999</v>
       </c>
       <c r="S5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="T5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>3.035245494563333</v>
+        <v>3.100846068806</v>
       </c>
       <c r="R6">
-        <v>27.31720945107</v>
+        <v>27.907614619254</v>
       </c>
       <c r="S6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="T6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>7.120306316128001</v>
+        <v>13.71243162757533</v>
       </c>
       <c r="R7">
-        <v>64.08275684515201</v>
+        <v>123.411884648178</v>
       </c>
       <c r="S7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="T7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
     </row>
   </sheetData>
